--- a/Share/Price list/atali-03-mar-2023.xlsx
+++ b/Share/Price list/atali-03-mar-2023.xlsx
@@ -7096,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1803"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A543" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A549" sqref="A549"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1480" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1513" sqref="A1513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7114,7 +7114,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="79">
         <f ca="1">TODAY()</f>
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="D1" s="79"/>
       <c r="E1" s="79"/>

--- a/Share/Price list/atali-03-mar-2023.xlsx
+++ b/Share/Price list/atali-03-mar-2023.xlsx
@@ -7096,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1803"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1480" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1513" sqref="A1513"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A777" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A781" sqref="A781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7114,7 +7114,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="79">
         <f ca="1">TODAY()</f>
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="D1" s="79"/>
       <c r="E1" s="79"/>
